--- a/PubliData/excel/Department.xlsx
+++ b/PubliData/excel/Department.xlsx
@@ -7,28 +7,97 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="ORG" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否最后一层</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+  <si>
+    <t>Root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO000002</t>
+  </si>
+  <si>
+    <t>总经办</t>
+  </si>
+  <si>
+    <t>PO000003</t>
+  </si>
+  <si>
+    <t>项目办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PO000004</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>PO000005</t>
+  </si>
+  <si>
+    <t>人力资源部</t>
+  </si>
+  <si>
+    <t>PO000006</t>
+  </si>
+  <si>
+    <t>营销部</t>
+  </si>
+  <si>
+    <t>PO000007</t>
+  </si>
+  <si>
+    <t>采购部</t>
+  </si>
+  <si>
+    <t>PO000008</t>
+  </si>
+  <si>
+    <t>技术研发部</t>
+  </si>
+  <si>
+    <t>PO000009</t>
+  </si>
+  <si>
+    <t>品管部</t>
+  </si>
+  <si>
+    <t>PO000010</t>
+  </si>
+  <si>
+    <t>行政部</t>
+  </si>
+  <si>
+    <t>PO000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门全称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -36,70 +105,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行政部</t>
-  </si>
-  <si>
-    <t>总经办</t>
-  </si>
-  <si>
-    <t>财务部</t>
-  </si>
-  <si>
-    <t>人力资源部</t>
-  </si>
-  <si>
-    <t>营销部</t>
-  </si>
-  <si>
-    <t>采购部</t>
-  </si>
-  <si>
-    <t>技术研发部</t>
-  </si>
-  <si>
-    <t>品管部</t>
-  </si>
-  <si>
-    <t>PO000004</t>
-  </si>
-  <si>
-    <t>PO000005</t>
-  </si>
-  <si>
-    <t>PO000006</t>
-  </si>
-  <si>
-    <t>PO000007</t>
-  </si>
-  <si>
-    <t>PO000008</t>
-  </si>
-  <si>
-    <t>PO000009</t>
-  </si>
-  <si>
-    <t>项目办公室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PO000003</t>
-  </si>
-  <si>
-    <t>PO000010</t>
-  </si>
-  <si>
-    <t>PO000002</t>
-  </si>
-  <si>
-    <t>Root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PO000011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产部门</t>
+    <t>互联网总经办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网项目办公室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网财务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网人力资源部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网营销部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网采购部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网技术研发部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网品管部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网行政部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网生产部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统筹规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协调调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务协同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排兵布阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招兵买马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心机密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕食鲸吞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掩耳改玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心保证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,200 +537,199 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -657,4 +738,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>